--- a/Mifos Automation Excels/Loan Product/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>productname</t>
   </si>
@@ -122,24 +122,12 @@
     <t>775C</t>
   </si>
   <si>
-    <t>775RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment</t>
-  </si>
-  <si>
     <t>verifyloanproduct</t>
   </si>
   <si>
-    <t>RBI (India) - Equal Installment - Declining Balance - Enable interest recalculation - None - Advance payment Reduce number of installments - preclosure Calculate till rest frequency date - Same as repayment - Multi disbursement - 1 - Repay on exact due date</t>
-  </si>
-  <si>
     <t>includeincustomerloancounter</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>decimalplaces</t>
   </si>
   <si>
@@ -225,6 +213,15 @@
   </si>
   <si>
     <t>Overpayment Liability</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -282,22 +279,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -605,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -617,73 +610,71 @@
     <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>41275</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="11">
+        <v>37</v>
+      </c>
+      <c r="B7" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -691,7 +682,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -699,24 +690,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -724,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -732,7 +722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -740,7 +730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -789,7 +779,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -797,7 +787,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -805,7 +795,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -813,7 +803,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -821,7 +811,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -829,7 +819,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="5">
@@ -837,115 +827,115 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>44</v>
+      <c r="A28" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -959,7 +949,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -970,10 +960,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Loanproduct.xlsx
@@ -56,9 +56,6 @@
     <t>repaymentstrategy</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>interestcalculationperiod</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -652,15 +652,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,36 +743,36 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
@@ -780,39 +780,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5">
         <v>2</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="5">
         <v>10000</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>7</v>
@@ -844,98 +844,98 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -960,10 +960,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
